--- a/team_specific_matrix/McNeese_A.xlsx
+++ b/team_specific_matrix/McNeese_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2364341085271318</v>
+        <v>0.2375</v>
       </c>
       <c r="C2">
-        <v>0.5077519379844961</v>
+        <v>0.490625</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01550387596899225</v>
+        <v>0.021875</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1627906976744186</v>
+        <v>0.165625</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07751937984496124</v>
+        <v>0.08437500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02142857142857143</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="C3">
-        <v>0.03571428571428571</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03571428571428571</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7285714285714285</v>
+        <v>0.7409638554216867</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1785714285714286</v>
+        <v>0.1807228915662651</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07894736842105263</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02631578947368421</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P4">
-        <v>0.631578947368421</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2631578947368421</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08552631578947369</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0131578947368421</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06578947368421052</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.243421052631579</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01973684210526316</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.131578947368421</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="R6">
-        <v>0.06578947368421052</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.366120218579235</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08943089430894309</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08130081300813008</v>
+        <v>0.07947019867549669</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1626016260162602</v>
+        <v>0.1390728476821192</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04065040650406504</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1707317073170732</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="R7">
-        <v>0.08943089430894309</v>
+        <v>0.07947019867549669</v>
       </c>
       <c r="S7">
-        <v>0.3658536585365854</v>
+        <v>0.3509933774834437</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09722222222222222</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02314814814814815</v>
+        <v>0.01908396946564886</v>
       </c>
       <c r="E8">
-        <v>0.004629629629629629</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="F8">
-        <v>0.04166666666666666</v>
+        <v>0.05725190839694656</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1342592592592593</v>
+        <v>0.133587786259542</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02314814814814815</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2222222222222222</v>
+        <v>0.232824427480916</v>
       </c>
       <c r="R8">
-        <v>0.1064814814814815</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="S8">
-        <v>0.3472222222222222</v>
+        <v>0.3244274809160305</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.152317880794702</v>
+        <v>0.1633663366336634</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01324503311258278</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="E9">
-        <v>0.006622516556291391</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="F9">
-        <v>0.04635761589403974</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09933774834437085</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05298013245033113</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1324503311258278</v>
+        <v>0.1732673267326733</v>
       </c>
       <c r="R9">
-        <v>0.08609271523178808</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="S9">
-        <v>0.4105960264900662</v>
+        <v>0.3811881188118812</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1246290801186944</v>
+        <v>0.1200941915227629</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02967359050445104</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="E10">
-        <v>0.001978239366963402</v>
+        <v>0.001569858712715856</v>
       </c>
       <c r="F10">
-        <v>0.07319485657764589</v>
+        <v>0.06750392464678179</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1097922848664688</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01681503461918892</v>
+        <v>0.01805337519623234</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2393669634025717</v>
+        <v>0.2409733124018838</v>
       </c>
       <c r="R10">
-        <v>0.08803165182987141</v>
+        <v>0.08948194662480377</v>
       </c>
       <c r="S10">
-        <v>0.3165182987141444</v>
+        <v>0.3194662480376766</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1116504854368932</v>
+        <v>0.1102040816326531</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1116504854368932</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="K11">
-        <v>0.1747572815533981</v>
+        <v>0.1755102040816326</v>
       </c>
       <c r="L11">
-        <v>0.5922330097087378</v>
+        <v>0.5836734693877551</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009708737864077669</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6946564885496184</v>
+        <v>0.7218543046357616</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1984732824427481</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="K12">
-        <v>0.01526717557251908</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="L12">
-        <v>0.06106870229007633</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03053435114503817</v>
+        <v>0.02649006622516556</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6111111111111112</v>
+        <v>0.68</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3888888888888889</v>
+        <v>0.32</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01507537688442211</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1206030150753769</v>
+        <v>0.110655737704918</v>
       </c>
       <c r="I15">
-        <v>0.08040201005025126</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="J15">
-        <v>0.3316582914572864</v>
+        <v>0.3688524590163935</v>
       </c>
       <c r="K15">
-        <v>0.06030150753768844</v>
+        <v>0.06147540983606557</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.005025125628140704</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="O15">
-        <v>0.05527638190954774</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3316582914572864</v>
+        <v>0.3114754098360656</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01875</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.11875</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="J16">
-        <v>0.45625</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="K16">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00625</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03125</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.14375</v>
+        <v>0.1464646464646465</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008595988538681949</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.08882521489971347</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="I17">
-        <v>0.1289398280802292</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="J17">
-        <v>0.5071633237822349</v>
+        <v>0.5173160173160173</v>
       </c>
       <c r="K17">
-        <v>0.07163323782234957</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008595988538681949</v>
+        <v>0.01082251082251082</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07449856733524356</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1117478510028653</v>
+        <v>0.1017316017316017</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02054794520547945</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08904109589041095</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="I18">
-        <v>0.0958904109589041</v>
+        <v>0.1215469613259668</v>
       </c>
       <c r="J18">
-        <v>0.3972602739726027</v>
+        <v>0.4033149171270718</v>
       </c>
       <c r="K18">
-        <v>0.1232876712328767</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02054794520547945</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="N18">
-        <v>0.00684931506849315</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="O18">
-        <v>0.1164383561643836</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1301369863013699</v>
+        <v>0.1215469613259668</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01280558789289872</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1513387660069849</v>
+        <v>0.1464114832535885</v>
       </c>
       <c r="I19">
-        <v>0.06984866123399301</v>
+        <v>0.07751196172248803</v>
       </c>
       <c r="J19">
-        <v>0.4225844004656578</v>
+        <v>0.4267942583732057</v>
       </c>
       <c r="K19">
-        <v>0.1047729918509895</v>
+        <v>0.1023923444976077</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0139697322467986</v>
+        <v>0.01626794258373206</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09545983701979045</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1292200232828871</v>
+        <v>0.1253588516746411</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/McNeese_A.xlsx
+++ b/team_specific_matrix/McNeese_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2375</v>
+        <v>0.2341597796143251</v>
       </c>
       <c r="C2">
-        <v>0.490625</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.021875</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.165625</v>
+        <v>0.162534435261708</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08437500000000001</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01807228915662651</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="C3">
-        <v>0.03012048192771084</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03012048192771084</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7409638554216867</v>
+        <v>0.7263157894736842</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1807228915662651</v>
+        <v>0.1894736842105263</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1041666666666667</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02083333333333333</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P4">
-        <v>0.6458333333333334</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2291666666666667</v>
+        <v>0.2264150943396226</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07650273224043716</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01092896174863388</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06557377049180328</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2240437158469945</v>
+        <v>0.2315270935960591</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01639344262295082</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.180327868852459</v>
+        <v>0.1822660098522167</v>
       </c>
       <c r="R6">
-        <v>0.06010928961748634</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="S6">
-        <v>0.366120218579235</v>
+        <v>0.3645320197044335</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1059602649006623</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006622516556291391</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07947019867549669</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1390728476821192</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03973509933774835</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1986754966887417</v>
+        <v>0.2108433734939759</v>
       </c>
       <c r="R7">
-        <v>0.07947019867549669</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="S7">
-        <v>0.3509933774834437</v>
+        <v>0.3433734939759036</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0916030534351145</v>
+        <v>0.09556313993174062</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01908396946564886</v>
+        <v>0.01706484641638225</v>
       </c>
       <c r="E8">
-        <v>0.003816793893129771</v>
+        <v>0.003412969283276451</v>
       </c>
       <c r="F8">
-        <v>0.05725190839694656</v>
+        <v>0.05802047781569966</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.133587786259542</v>
+        <v>0.1433447098976109</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02290076335877863</v>
+        <v>0.0204778156996587</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.232824427480916</v>
+        <v>0.2320819112627986</v>
       </c>
       <c r="R8">
-        <v>0.1145038167938931</v>
+        <v>0.1092150170648464</v>
       </c>
       <c r="S8">
-        <v>0.3244274809160305</v>
+        <v>0.3208191126279863</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1633663366336634</v>
+        <v>0.1615720524017467</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009900990099009901</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E9">
-        <v>0.004950495049504951</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="F9">
-        <v>0.05445544554455446</v>
+        <v>0.05240174672489083</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.103960396039604</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0396039603960396</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1732673267326733</v>
+        <v>0.1703056768558952</v>
       </c>
       <c r="R9">
-        <v>0.06930693069306931</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="S9">
-        <v>0.3811881188118812</v>
+        <v>0.3799126637554585</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1200941915227629</v>
+        <v>0.1231732776617954</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03061224489795918</v>
+        <v>0.03061934585942937</v>
       </c>
       <c r="E10">
-        <v>0.001569858712715856</v>
+        <v>0.00139178844815588</v>
       </c>
       <c r="F10">
-        <v>0.06750392464678179</v>
+        <v>0.06541405706332637</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1122448979591837</v>
+        <v>0.1141266527487822</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01805337519623234</v>
+        <v>0.01809324982602644</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2409733124018838</v>
+        <v>0.2386917188587335</v>
       </c>
       <c r="R10">
-        <v>0.08948194662480377</v>
+        <v>0.08907446068197634</v>
       </c>
       <c r="S10">
-        <v>0.3194662480376766</v>
+        <v>0.3194154488517745</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1102040816326531</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1224489795918367</v>
+        <v>0.1310861423220974</v>
       </c>
       <c r="K11">
-        <v>0.1755102040816326</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="L11">
-        <v>0.5836734693877551</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00816326530612245</v>
+        <v>0.00749063670411985</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7218543046357616</v>
+        <v>0.7329192546583851</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1854304635761589</v>
+        <v>0.1801242236024845</v>
       </c>
       <c r="K12">
-        <v>0.01324503311258278</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="L12">
-        <v>0.05298013245033113</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02649006622516556</v>
+        <v>0.02484472049689441</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.68</v>
+        <v>0.71875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.32</v>
+        <v>0.28125</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01229508196721311</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.110655737704918</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="I15">
-        <v>0.07377049180327869</v>
+        <v>0.06985294117647059</v>
       </c>
       <c r="J15">
-        <v>0.3688524590163935</v>
+        <v>0.3639705882352941</v>
       </c>
       <c r="K15">
-        <v>0.06147540983606557</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.003676470588235294</v>
       </c>
       <c r="N15">
-        <v>0.004098360655737705</v>
+        <v>0.003676470588235294</v>
       </c>
       <c r="O15">
-        <v>0.05737704918032787</v>
+        <v>0.05514705882352941</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3114754098360656</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01515151515151515</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1111111111111111</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="I16">
-        <v>0.101010101010101</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="J16">
-        <v>0.4646464646464646</v>
+        <v>0.4618834080717489</v>
       </c>
       <c r="K16">
-        <v>0.1212121212121212</v>
+        <v>0.1165919282511211</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005050505050505051</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03535353535353535</v>
+        <v>0.03587443946188341</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1464646464646465</v>
+        <v>0.1434977578475336</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006493506493506494</v>
+        <v>0.005825242718446602</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.09740259740259741</v>
+        <v>0.09320388349514563</v>
       </c>
       <c r="I17">
-        <v>0.1298701298701299</v>
+        <v>0.1320388349514563</v>
       </c>
       <c r="J17">
-        <v>0.5173160173160173</v>
+        <v>0.516504854368932</v>
       </c>
       <c r="K17">
-        <v>0.06493506493506493</v>
+        <v>0.06213592233009708</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01082251082251082</v>
+        <v>0.0116504854368932</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07142857142857142</v>
+        <v>0.07572815533980583</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1017316017316017</v>
+        <v>0.1029126213592233</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01657458563535912</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08839779005524862</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="I18">
-        <v>0.1215469613259668</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="J18">
-        <v>0.4033149171270718</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="K18">
-        <v>0.1160220994475138</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01657458563535912</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="N18">
-        <v>0.005524861878453038</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="O18">
-        <v>0.1104972375690608</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1215469613259668</v>
+        <v>0.1313131313131313</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01052631578947368</v>
+        <v>0.01024765157984629</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1464114832535885</v>
+        <v>0.147736976942784</v>
       </c>
       <c r="I19">
-        <v>0.07751196172248803</v>
+        <v>0.08198121263877028</v>
       </c>
       <c r="J19">
-        <v>0.4267942583732057</v>
+        <v>0.426131511528608</v>
       </c>
       <c r="K19">
-        <v>0.1023923444976077</v>
+        <v>0.09991460290350128</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01626794258373206</v>
+        <v>0.01707941929974381</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09473684210526316</v>
+        <v>0.09393680614859094</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1253588516746411</v>
+        <v>0.1229718189581554</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/McNeese_A.xlsx
+++ b/team_specific_matrix/McNeese_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2341597796143251</v>
+        <v>0.2351421188630491</v>
       </c>
       <c r="C2">
-        <v>0.4958677685950413</v>
+        <v>0.4935400516795866</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02479338842975207</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.162534435261708</v>
+        <v>0.1679586563307494</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08264462809917356</v>
+        <v>0.08010335917312661</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01578947368421053</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C3">
-        <v>0.02631578947368421</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04210526315789474</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7263157894736842</v>
+        <v>0.7263681592039801</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1894736842105263</v>
+        <v>0.1890547263681592</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09433962264150944</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01886792452830189</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P4">
-        <v>0.660377358490566</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2264150943396226</v>
+        <v>0.2280701754385965</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06896551724137931</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009852216748768473</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05911330049261083</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2315270935960591</v>
+        <v>0.2350230414746544</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01970443349753695</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1822660098522167</v>
+        <v>0.1751152073732719</v>
       </c>
       <c r="R6">
-        <v>0.06403940886699508</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="S6">
-        <v>0.3645320197044335</v>
+        <v>0.3594470046082949</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.108433734939759</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006024096385542169</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07228915662650602</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.144578313253012</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04216867469879518</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2108433734939759</v>
+        <v>0.2078651685393259</v>
       </c>
       <c r="R7">
-        <v>0.07228915662650602</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="S7">
-        <v>0.3433734939759036</v>
+        <v>0.3595505617977528</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09556313993174062</v>
+        <v>0.09657320872274143</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01706484641638225</v>
+        <v>0.01557632398753894</v>
       </c>
       <c r="E8">
-        <v>0.003412969283276451</v>
+        <v>0.003115264797507788</v>
       </c>
       <c r="F8">
-        <v>0.05802047781569966</v>
+        <v>0.0529595015576324</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1433447098976109</v>
+        <v>0.1526479750778816</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0204778156996587</v>
+        <v>0.02180685358255452</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2320819112627986</v>
+        <v>0.2305295950155763</v>
       </c>
       <c r="R8">
-        <v>0.1092150170648464</v>
+        <v>0.1059190031152648</v>
       </c>
       <c r="S8">
-        <v>0.3208191126279863</v>
+        <v>0.3208722741433022</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1615720524017467</v>
+        <v>0.1541666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008733624454148471</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E9">
-        <v>0.004366812227074236</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="F9">
-        <v>0.05240174672489083</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1135371179039301</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04366812227074236</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1703056768558952</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.06550218340611354</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="S9">
-        <v>0.3799126637554585</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1231732776617954</v>
+        <v>0.1216828478964401</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03061934585942937</v>
+        <v>0.03042071197411003</v>
       </c>
       <c r="E10">
-        <v>0.00139178844815588</v>
+        <v>0.001941747572815534</v>
       </c>
       <c r="F10">
-        <v>0.06541405706332637</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1141266527487822</v>
+        <v>0.112621359223301</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01809324982602644</v>
+        <v>0.01812297734627832</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2386917188587335</v>
+        <v>0.2394822006472492</v>
       </c>
       <c r="R10">
-        <v>0.08907446068197634</v>
+        <v>0.09061488673139159</v>
       </c>
       <c r="S10">
-        <v>0.3194154488517745</v>
+        <v>0.3184466019417476</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1086142322097378</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1310861423220974</v>
+        <v>0.1245674740484429</v>
       </c>
       <c r="K11">
-        <v>0.1797752808988764</v>
+        <v>0.1799307958477509</v>
       </c>
       <c r="L11">
-        <v>0.5730337078651685</v>
+        <v>0.5709342560553633</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00749063670411985</v>
+        <v>0.006920415224913495</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7329192546583851</v>
+        <v>0.7183908045977011</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1801242236024845</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="K12">
-        <v>0.0124223602484472</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="L12">
-        <v>0.04968944099378882</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02484472049689441</v>
+        <v>0.02298850574712644</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.71875</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.28125</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02205882352941177</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1102941176470588</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="I15">
-        <v>0.06985294117647059</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="J15">
-        <v>0.3639705882352941</v>
+        <v>0.3601398601398602</v>
       </c>
       <c r="K15">
-        <v>0.05882352941176471</v>
+        <v>0.05944055944055944</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.003676470588235294</v>
+        <v>0.003496503496503497</v>
       </c>
       <c r="N15">
-        <v>0.003676470588235294</v>
+        <v>0.003496503496503497</v>
       </c>
       <c r="O15">
-        <v>0.05514705882352941</v>
+        <v>0.05244755244755245</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3125</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01345291479820628</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1210762331838565</v>
+        <v>0.1161825726141079</v>
       </c>
       <c r="I16">
-        <v>0.09865470852017937</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="J16">
-        <v>0.4618834080717489</v>
+        <v>0.4813278008298755</v>
       </c>
       <c r="K16">
-        <v>0.1165919282511211</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008968609865470852</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03587443946188341</v>
+        <v>0.03734439834024896</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1434977578475336</v>
+        <v>0.1369294605809129</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005825242718446602</v>
+        <v>0.00544464609800363</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.09320388349514563</v>
+        <v>0.1016333938294011</v>
       </c>
       <c r="I17">
-        <v>0.1320388349514563</v>
+        <v>0.1288566243194192</v>
       </c>
       <c r="J17">
-        <v>0.516504854368932</v>
+        <v>0.5099818511796733</v>
       </c>
       <c r="K17">
-        <v>0.06213592233009708</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0116504854368932</v>
+        <v>0.01270417422867514</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07572815533980583</v>
+        <v>0.07259528130671507</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1029126213592233</v>
+        <v>0.09981851179673321</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01515151515151515</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08080808080808081</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="I18">
-        <v>0.1161616161616162</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J18">
-        <v>0.4141414141414141</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0202020202020202</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="N18">
-        <v>0.005050505050505051</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="O18">
-        <v>0.1060606060606061</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1313131313131313</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01024765157984629</v>
+        <v>0.01115537848605578</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.147736976942784</v>
+        <v>0.149003984063745</v>
       </c>
       <c r="I19">
-        <v>0.08198121263877028</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="J19">
-        <v>0.426131511528608</v>
+        <v>0.4254980079681275</v>
       </c>
       <c r="K19">
-        <v>0.09991460290350128</v>
+        <v>0.099601593625498</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01707941929974381</v>
+        <v>0.01832669322709163</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09393680614859094</v>
+        <v>0.09322709163346614</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1229718189581554</v>
+        <v>0.1235059760956175</v>
       </c>
     </row>
   </sheetData>
